--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N2">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O2">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P2">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q2">
-        <v>2.975065763922444</v>
+        <v>1.07795817486</v>
       </c>
       <c r="R2">
-        <v>26.775591875302</v>
+        <v>9.701623573739999</v>
       </c>
       <c r="S2">
-        <v>0.00730912760991871</v>
+        <v>0.002599766230965683</v>
       </c>
       <c r="T2">
-        <v>0.007309127609918709</v>
+        <v>0.002599766230965682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N3">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O3">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P3">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q3">
-        <v>207.2750140894711</v>
+        <v>189.6591737233689</v>
       </c>
       <c r="R3">
-        <v>1865.47512680524</v>
+        <v>1706.93256351032</v>
       </c>
       <c r="S3">
-        <v>0.509232282089189</v>
+        <v>0.457410618276452</v>
       </c>
       <c r="T3">
-        <v>0.5092322820891889</v>
+        <v>0.457410618276452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N4">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O4">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P4">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q4">
-        <v>25.32018014673311</v>
+        <v>39.36854719546578</v>
       </c>
       <c r="R4">
-        <v>227.881621320598</v>
+        <v>354.316924759192</v>
       </c>
       <c r="S4">
-        <v>0.06220649978325219</v>
+        <v>0.0949471157118348</v>
       </c>
       <c r="T4">
-        <v>0.06220649978325219</v>
+        <v>0.09494711571183478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H5">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J5">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N5">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O5">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P5">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q5">
-        <v>0.3602654886264445</v>
+        <v>0.1866277117777778</v>
       </c>
       <c r="R5">
-        <v>3.242389397638</v>
+        <v>1.679649406</v>
       </c>
       <c r="S5">
-        <v>0.0008850985621066239</v>
+        <v>0.0004500994882341117</v>
       </c>
       <c r="T5">
-        <v>0.0008850985621066238</v>
+        <v>0.0004500994882341116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N6">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O6">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P6">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q6">
-        <v>1.496831782797222</v>
+        <v>0.5927225298750001</v>
       </c>
       <c r="R6">
-        <v>13.471486045175</v>
+        <v>5.334502768875001</v>
       </c>
       <c r="S6">
-        <v>0.00367740930090318</v>
+        <v>0.001429498892850553</v>
       </c>
       <c r="T6">
-        <v>0.00367740930090318</v>
+        <v>0.001429498892850553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N7">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O7">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P7">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q7">
         <v>104.2853682870556</v>
       </c>
       <c r="R7">
-        <v>938.5683145835</v>
+        <v>938.5683145835002</v>
       </c>
       <c r="S7">
-        <v>0.256207803504988</v>
+        <v>0.2515102952781243</v>
       </c>
       <c r="T7">
-        <v>0.256207803504988</v>
+        <v>0.2515102952781243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.262925</v>
       </c>
       <c r="I8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J8">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N8">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O8">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P8">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q8">
-        <v>12.73923112873056</v>
+        <v>21.64705963126111</v>
       </c>
       <c r="R8">
-        <v>114.653080158575</v>
+        <v>194.82353668135</v>
       </c>
       <c r="S8">
-        <v>0.0312976832651178</v>
+        <v>0.05220730816978322</v>
       </c>
       <c r="T8">
-        <v>0.0312976832651178</v>
+        <v>0.05220730816978321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.262925</v>
       </c>
       <c r="I9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J9">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N9">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O9">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P9">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q9">
-        <v>0.1812587943972223</v>
+        <v>0.1026184986111111</v>
       </c>
       <c r="R9">
-        <v>1.631329149575</v>
+        <v>0.9235664875000001</v>
       </c>
       <c r="S9">
-        <v>0.0004453157556163026</v>
+        <v>0.0002474902214051247</v>
       </c>
       <c r="T9">
-        <v>0.0004453157556163025</v>
+        <v>0.0002474902214051247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N10">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O10">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P10">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q10">
-        <v>0.5913180614163331</v>
+        <v>0.22112763183</v>
       </c>
       <c r="R10">
-        <v>5.321862552746999</v>
+        <v>1.99014868647</v>
       </c>
       <c r="S10">
-        <v>0.001452747438847673</v>
+        <v>0.0005333046897109053</v>
       </c>
       <c r="T10">
-        <v>0.001452747438847673</v>
+        <v>0.0005333046897109053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H11">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J11">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N11">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O11">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P11">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q11">
-        <v>41.19756309179332</v>
+        <v>38.90585452977333</v>
       </c>
       <c r="R11">
-        <v>370.7780678261399</v>
+        <v>350.15269076796</v>
       </c>
       <c r="S11">
-        <v>0.1012139797066497</v>
+        <v>0.09383121641663351</v>
       </c>
       <c r="T11">
-        <v>0.1012139797066497</v>
+        <v>0.09383121641663353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H12">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J12">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N12">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O12">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P12">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q12">
-        <v>5.032587857600332</v>
+        <v>8.075891823030666</v>
       </c>
       <c r="R12">
-        <v>45.293290718403</v>
+        <v>72.683026407276</v>
       </c>
       <c r="S12">
-        <v>0.01236403823585768</v>
+        <v>0.0194770366198798</v>
       </c>
       <c r="T12">
-        <v>0.01236403823585768</v>
+        <v>0.0194770366198798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H13">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J13">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N13">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O13">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P13">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q13">
-        <v>0.07160564076033332</v>
+        <v>0.03828399366666666</v>
       </c>
       <c r="R13">
-        <v>0.644450766843</v>
+        <v>0.344555943</v>
       </c>
       <c r="S13">
-        <v>0.0001759204022492716</v>
+        <v>9.233144313231861E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001759204022492716</v>
+        <v>9.233144313231861E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H14">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J14">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N14">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O14">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P14">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q14">
-        <v>0.06945579365244443</v>
+        <v>0.04903326414</v>
       </c>
       <c r="R14">
-        <v>0.6251021428720001</v>
+        <v>0.44129937726</v>
       </c>
       <c r="S14">
-        <v>0.0001706386679616042</v>
+        <v>0.0001182560022069023</v>
       </c>
       <c r="T14">
-        <v>0.0001706386679616042</v>
+        <v>0.0001182560022069023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H15">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J15">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N15">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O15">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P15">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q15">
-        <v>4.839036092071111</v>
+        <v>8.627058617520001</v>
       </c>
       <c r="R15">
-        <v>43.55132482864</v>
+        <v>77.64352755768</v>
       </c>
       <c r="S15">
-        <v>0.01188852116644239</v>
+        <v>0.02080631344467782</v>
       </c>
       <c r="T15">
-        <v>0.01188852116644239</v>
+        <v>0.02080631344467782</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H16">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J16">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N16">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O16">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P16">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q16">
-        <v>0.5911241455031111</v>
+        <v>1.790763703512</v>
       </c>
       <c r="R16">
-        <v>5.320117309528</v>
+        <v>16.116873331608</v>
       </c>
       <c r="S16">
-        <v>0.001452271027141915</v>
+        <v>0.004318875363261828</v>
       </c>
       <c r="T16">
-        <v>0.001452271027141915</v>
+        <v>0.004318875363261828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H17">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J17">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N17">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O17">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P17">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q17">
-        <v>0.008410746996444445</v>
+        <v>0.008489166000000001</v>
       </c>
       <c r="R17">
-        <v>0.07569672296800001</v>
+        <v>0.076402494</v>
       </c>
       <c r="S17">
-        <v>2.066348375798644E-05</v>
+        <v>2.047375084727044E-05</v>
       </c>
       <c r="T17">
-        <v>2.066348375798644E-05</v>
+        <v>2.047375084727044E-05</v>
       </c>
     </row>
   </sheetData>
